--- a/config_Release/xrhb1_config.xlsx
+++ b/config_Release/xrhb1_config.xlsx
@@ -407,22 +407,192 @@
     <t>体验一次红包大转盘</t>
   </si>
   <si>
-    <t>"xycj","panel",</t>
-  </si>
-  <si>
     <t>进阶任务2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"game_MiniGame</t>
+    <t>进阶任务3</t>
+  </si>
+  <si>
+    <t>进阶任务4</t>
+  </si>
+  <si>
+    <t>进阶任务5</t>
+  </si>
+  <si>
+    <t>进阶任务6</t>
+  </si>
+  <si>
+    <t>进阶任务7</t>
+  </si>
+  <si>
+    <t>进阶任务8</t>
+  </si>
+  <si>
+    <t>完成15次匹配场对局</t>
+  </si>
+  <si>
+    <t>1,5,2,3,4,14,15, 16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6,7,8,9,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10,11,12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,13</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领0.2福利券</t>
+  </si>
+  <si>
+    <t>完成任务领2000金币</t>
+  </si>
+  <si>
+    <t>完成任务领3000金币</t>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_image|图标名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领30福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领10000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领20福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领60000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领50元福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领20福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领10福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领60福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领150福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领300福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领600福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领1800福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>game_Fishing3DHall</t>
     </r>
     <r>
       <rPr>
@@ -435,203 +605,6 @@
       </rPr>
       <t>",</t>
     </r>
-  </si>
-  <si>
-    <t>进阶任务3</t>
-  </si>
-  <si>
-    <t>进阶任务4</t>
-  </si>
-  <si>
-    <t>进阶任务5</t>
-  </si>
-  <si>
-    <t>进阶任务6</t>
-  </si>
-  <si>
-    <t>进阶任务7</t>
-  </si>
-  <si>
-    <t>进阶任务8</t>
-  </si>
-  <si>
-    <t>完成15次匹配场对局</t>
-  </si>
-  <si>
-    <t>1,5,2,3,4,14,15, 16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6,7,8,9,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10,11,12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,13</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领0.2福利券</t>
-  </si>
-  <si>
-    <t>完成任务领2000金币</t>
-  </si>
-  <si>
-    <t>完成任务领3000金币</t>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_image|图标名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领30福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领10000金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领20福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领60000金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领50元福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领20福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领10福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领60福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领150福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领300福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领600福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领1800福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>game_Fishing3DHall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -676,6 +649,14 @@
   </si>
   <si>
     <t>3D捕鱼中开炮30次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel",1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
@@ -1188,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="15">
         <v>30</v>
@@ -1385,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1415,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
@@ -1441,19 +1422,19 @@
         <v>32</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5">
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -1470,19 +1451,19 @@
         <v>34</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="5">
         <v>10000</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -1499,19 +1480,19 @@
         <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="5">
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5">
         <v>3</v>
@@ -1528,19 +1509,19 @@
         <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5">
         <v>60000</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" s="5">
         <v>4</v>
@@ -1560,7 +1541,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="5">
         <v>50</v>
@@ -1569,7 +1550,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="5">
         <v>5</v>
@@ -1589,16 +1570,16 @@
         <v>43</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="10">
         <v>20</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="10">
         <v>6</v>
@@ -1612,22 +1593,22 @@
         <v>21132</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="10">
         <v>10</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" s="10">
         <v>7</v>
@@ -1641,22 +1622,22 @@
         <v>21133</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="10">
         <v>30</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9" s="10">
         <v>8</v>
@@ -1670,22 +1651,22 @@
         <v>21134</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="10">
         <v>60</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" s="10">
         <v>9</v>
@@ -1699,22 +1680,22 @@
         <v>21135</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10">
         <v>150</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I11" s="10">
         <v>10</v>
@@ -1728,22 +1709,22 @@
         <v>21136</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="10">
         <v>300</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I12" s="10">
         <v>11</v>
@@ -1757,22 +1738,22 @@
         <v>21137</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" s="10">
         <v>600</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I13" s="10">
         <v>12</v>
@@ -1786,22 +1767,22 @@
         <v>21138</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="10">
         <v>1800</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="10">
         <v>13</v>
@@ -1821,7 +1802,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="5">
         <v>2000</v>
@@ -1830,7 +1811,7 @@
         <v>33</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="5">
         <v>2</v>
@@ -1850,7 +1831,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="5">
         <v>0.2</v>
@@ -1859,7 +1840,7 @@
         <v>33</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I16" s="5">
         <v>3</v>
@@ -1876,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="5">
         <v>3000</v>
@@ -1888,7 +1869,7 @@
         <v>33</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" s="5">
         <v>4</v>
